--- a/generated_docs/WR_89700562_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_89700562_WeekEnding_081725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I58"/>
+  <dimension ref="A2:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:49 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>14782.21</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>2620.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>3334.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +926,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +960,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>2620.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +994,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>5240.399999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>2620.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>66.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1661,11 +1661,11 @@
         </is>
       </c>
       <c r="F49" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>SWI-27-CO1-100-H-C</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1699,164 +1699,198 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="15" t="inlineStr">
+      <c r="A51" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B51" s="12" t="inlineStr">
+        <is>
+          <t>SWI-27-CO1-100-H-C</t>
+        </is>
+      </c>
+      <c r="C51" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D51" s="12" t="inlineStr">
+        <is>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+        </is>
+      </c>
+      <c r="E51" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="13" t="inlineStr"/>
+      <c r="H51" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H51" s="16" t="n">
-        <v>5254.21</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="7" t="inlineStr">
+      <c r="H52" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="inlineStr">
         <is>
           <t>Thursday (08/14/2025)</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C55" s="8" t="inlineStr">
+      <c r="C56" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D55" s="8" t="inlineStr">
+      <c r="D56" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E55" s="8" t="inlineStr">
+      <c r="E56" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F55" s="8" t="inlineStr">
+      <c r="F56" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G55" s="8" t="inlineStr">
+      <c r="G56" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H55" s="8" t="inlineStr">
+      <c r="H56" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="9" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="9" t="inlineStr">
         <is>
           <t>Point 03</t>
         </is>
       </c>
-      <c r="B56" s="9" t="inlineStr">
+      <c r="B57" s="9" t="inlineStr">
         <is>
           <t>PLA-BACK</t>
         </is>
       </c>
-      <c r="C56" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D56" s="9" t="inlineStr">
+      <c r="C57" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
         <is>
           <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
-      <c r="E56" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F56" s="10" t="n">
+      <c r="E57" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F57" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="G56" s="10" t="inlineStr"/>
-      <c r="H56" s="11" t="n">
-        <v>476.4</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="12" t="inlineStr">
+      <c r="G57" s="10" t="inlineStr"/>
+      <c r="H57" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="12" t="inlineStr">
         <is>
           <t>Point 03</t>
         </is>
       </c>
-      <c r="B57" s="12" t="inlineStr">
+      <c r="B58" s="12" t="inlineStr">
         <is>
           <t>PLA-DLOC</t>
         </is>
       </c>
-      <c r="C57" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D57" s="12" t="inlineStr">
+      <c r="C58" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D58" s="12" t="inlineStr">
         <is>
           <t>PLA,Difficult Location</t>
         </is>
       </c>
-      <c r="E57" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F57" s="13" t="n">
+      <c r="E58" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F58" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="G57" s="13" t="inlineStr"/>
-      <c r="H57" s="14" t="n">
-        <v>476.4</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="15" t="inlineStr">
+      <c r="G58" s="13" t="inlineStr"/>
+      <c r="H58" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H58" s="16" t="n">
-        <v>952.8</v>
+      <c r="H59" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A58:G58"/>
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A55:H55"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A54:H54"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A52:G52"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A59:G59"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A51:G51"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>

--- a/generated_docs/WR_89700562_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_89700562_WeekEnding_081725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I59"/>
+  <dimension ref="A2:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:49 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>14782.21</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P23</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>2620.2</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +839,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>0</v>
+        <v>3334.8</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +922,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +956,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>2620.2</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +990,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="27">
@@ -1028,7 +1024,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="28">
@@ -1062,7 +1058,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="29">
@@ -1096,7 +1092,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="30">
@@ -1130,7 +1126,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="31">
@@ -1164,7 +1160,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="32">
@@ -1198,7 +1194,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="33">
@@ -1232,7 +1228,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="34">
@@ -1266,7 +1262,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="35">
@@ -1276,7 +1272,7 @@
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>0</v>
+        <v>5240.399999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1359,7 +1355,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>2620.2</v>
       </c>
     </row>
     <row r="41">
@@ -1393,7 +1389,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="42">
@@ -1427,7 +1423,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="43">
@@ -1461,7 +1457,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="44">
@@ -1495,7 +1491,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>66.72</v>
       </c>
     </row>
     <row r="45">
@@ -1529,7 +1525,7 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="46">
@@ -1563,7 +1559,7 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="47">
@@ -1574,7 +1570,7 @@
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1584,7 +1580,7 @@
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1597,7 +1593,7 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="48">
@@ -1608,7 +1604,7 @@
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
@@ -1618,7 +1614,7 @@
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1631,7 +1627,7 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="49">
@@ -1642,7 +1638,7 @@
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
@@ -1652,7 +1648,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1661,11 +1657,11 @@
         </is>
       </c>
       <c r="F49" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="50">
@@ -1676,7 +1672,7 @@
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>SWI-27-CO1-100-H-C</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
@@ -1686,7 +1682,7 @@
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1699,198 +1695,164 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="12" t="inlineStr">
+      <c r="A51" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H51" s="16" t="n">
+        <v>5254.21</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (08/14/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B55" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C55" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D55" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E55" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F55" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G55" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H55" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="inlineStr">
         <is>
           <t>Point 03</t>
         </is>
       </c>
-      <c r="B51" s="12" t="inlineStr">
-        <is>
-          <t>SWI-27-CO1-100-H-C</t>
-        </is>
-      </c>
-      <c r="C51" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D51" s="12" t="inlineStr">
-        <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
-        </is>
-      </c>
-      <c r="E51" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F51" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="13" t="inlineStr"/>
-      <c r="H51" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="15" t="inlineStr">
+      <c r="B56" s="9" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C56" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D56" s="9" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E56" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G56" s="10" t="inlineStr"/>
+      <c r="H56" s="11" t="n">
+        <v>476.4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B57" s="12" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C57" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D57" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E57" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F57" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G57" s="13" t="inlineStr"/>
+      <c r="H57" s="14" t="n">
+        <v>476.4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H52" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (08/14/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B56" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C56" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D56" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E56" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F56" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G56" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H56" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C57" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D57" s="9" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E57" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F57" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G57" s="10" t="inlineStr"/>
-      <c r="H57" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="12" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B58" s="12" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C58" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D58" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E58" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F58" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G58" s="13" t="inlineStr"/>
-      <c r="H58" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H59" s="16" t="n">
-        <v>0</v>
+      <c r="H58" s="16" t="n">
+        <v>952.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A58:G58"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A55:H55"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A54:H54"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A52:G52"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A59:G59"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A51:G51"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
